--- a/models/table_b6-7.xlsx
+++ b/models/table_b6-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -106,349 +106,361 @@
     <t xml:space="preserve">PanelOLS       </t>
   </si>
   <si>
-    <t xml:space="preserve">1721           </t>
+    <t xml:space="preserve">1728           </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered      </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4612         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2401         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3555         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">363.29         </t>
+    <t xml:space="preserve">0.4553         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2599         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3486         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">356.03         </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000         </t>
   </si>
   <si>
+    <t xml:space="preserve">0.1140***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0050)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0806         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0593)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1655***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0615)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1260*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0704)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3193***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1059)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4570         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2435         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3424         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">238.71         </t>
+  </si>
+  <si>
     <t xml:space="preserve">0.1145***      </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0048)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0783         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0601)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1709***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0579)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1253*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0683)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3206***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1053)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4627         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2257         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3499         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">243.38         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1149***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0804         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0607)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1691***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0574)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1330*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0680)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3176***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1055)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0286**      </t>
+    <t xml:space="preserve">0.0828         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0597)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1636***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0609)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1344*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0700)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3162***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1057)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0305**      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0146)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0034         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0117)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6792         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9010         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7803         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">514.49         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1096***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0025)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0630**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0256)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0468         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0329)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0516*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0285)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1041**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0423)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0255*       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0132)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0060        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0079)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6407***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0630)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7104         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7392         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7262         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">521.22         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1077***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0034)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0004         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0280)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0219         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0406)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0023         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0299)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0323         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0463)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0159        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0126)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0041        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0100)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5006***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0468)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2207***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0458)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6989         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8268         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7584         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">493.14         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1071***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0029)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0195         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0263)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0555         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0371)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0227         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0291)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0568         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0435)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0192        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0127)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0026         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0121)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6787         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8946         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7781         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">511.38         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1099***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0024)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0637**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0263)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0490         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0332)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0519*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0279)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1068**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0447)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0259**      </t>
+    <t xml:space="preserve">-0.0082        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0104)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5601***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0552)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0330)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7053         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7839         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7431         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">508.54         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0031)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0079         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0272)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0424         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0390)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0118         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0297)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0427         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0440)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0173        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0124)       </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0069        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0081)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6356***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0657)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7101         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7261         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7245         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">518.57         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1077***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0032)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0003         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0289)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0252         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0408)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0036         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0284)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0348         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0478)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0157        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0114)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0049        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0104)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4955***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0491)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2196***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0459)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6978         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8199         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7575         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">489.02         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1073***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0028)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0205         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0270)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0579         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0373)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0240         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0280)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0600         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0456)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0194        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0092        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0107)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5580***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1310***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0330)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7045         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7748         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7422         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">504.83         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0030)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0085         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0454         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0391)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0132         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0456         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0458)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0173        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0116)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0076        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0108)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5257***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0533)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1786***      </t>
+    <t xml:space="preserve">-0.0067        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0105)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5287***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0505)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1810***      </t>
   </si>
 </sst>
 </file>
@@ -947,7 +959,7 @@
         <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -970,7 +982,7 @@
         <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -993,7 +1005,7 @@
         <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1016,7 +1028,7 @@
         <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1039,7 +1051,7 @@
         <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1108,7 +1120,7 @@
         <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1131,7 +1143,7 @@
         <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1154,7 +1166,7 @@
         <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1177,7 +1189,7 @@
         <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1200,7 +1212,7 @@
         <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1223,7 +1235,7 @@
         <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1246,7 +1258,7 @@
         <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1269,7 +1281,7 @@
         <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1292,7 +1304,7 @@
         <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1315,7 +1327,7 @@
         <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1335,10 +1347,10 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1358,10 +1370,10 @@
         <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1381,10 +1393,10 @@
         <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1404,10 +1416,10 @@
         <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1427,10 +1439,10 @@
         <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1496,7 +1508,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
@@ -1519,7 +1531,7 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
@@ -1545,7 +1557,7 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1568,7 +1580,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_b6-7.xlsx
+++ b/models/table_b6-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="184">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -70,16 +70,19 @@
     <t xml:space="preserve">const                  </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_suffrage          </t>
+    <t xml:space="preserve">l_sy_gdp               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_lifeex            </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_urban             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_gdp               </t>
+    <t xml:space="preserve">l_sy_trnsprnt          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_brcrcy            </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_war               </t>
@@ -91,6 +94,15 @@
     <t xml:space="preserve">l_sy_model             </t>
   </si>
   <si>
+    <t xml:space="preserve">1860                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:nat               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:sci               </t>
+  </si>
+  <si>
     <t xml:space="preserve">l_wy_nat_world         </t>
   </si>
   <si>
@@ -106,361 +118,454 @@
     <t xml:space="preserve">PanelOLS       </t>
   </si>
   <si>
-    <t xml:space="preserve">1728           </t>
+    <t xml:space="preserve">1957           </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered      </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4553         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2599         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3486         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">356.03         </t>
+    <t xml:space="preserve">0.6733         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5730         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6233         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">795.98         </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000         </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1140***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0050)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0806         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0593)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1655***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0615)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1260*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0704)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3193***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1059)       </t>
+    <t xml:space="preserve">0.1510***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0072)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2363         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1474)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3955***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1191)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1120**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0549)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0908         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0695)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0891         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0928)       </t>
   </si>
   <si>
     <t xml:space="preserve">               </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4570         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2435         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3424         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">238.71         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1145***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0828         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0597)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1636***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0609)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1344*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0700)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3162***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1057)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0305**      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0146)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0034         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0117)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6792         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9010         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7803         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">514.49         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1096***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0025)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0630**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0256)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0468         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0329)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0516*        </t>
+    <t xml:space="preserve">0.5713         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6226         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">568.00         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1511***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2366         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1485)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3954***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1192)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0551)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0904         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0687)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0898         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0938)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0028        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0140)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0015         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0061)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8480         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9677         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8925         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">976.11         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1419***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0027)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0728*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0408)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0992**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0406)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0385         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0336)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0057         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0282)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0174         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0271)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0184*       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0098)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0082        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0063)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7583***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0429)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0889         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0757)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0258         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0508)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2381**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1184)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8662         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8565         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8585         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1038.3         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1369***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0028)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0134         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0402)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0115         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0183)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0297         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0403)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0079        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0299)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0142        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0285)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1041**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0423)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0255*       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0132)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0060        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0079)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6407***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0630)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7104         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7392         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7262         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">521.22         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1077***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0034)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0004         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0280)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0219         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0406)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0023         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0299)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0323         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0463)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0159        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0126)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0041        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0100)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5006***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0468)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2207***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0458)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6989         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8268         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7584         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">493.14         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1071***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0029)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0195         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0263)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0555         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0371)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0227         </t>
+    <t xml:space="preserve">-0.0029        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0097)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0121**      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0055)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5616***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0466)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0664         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0711)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0524         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0473)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2558**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1074)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2786***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0413)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8634         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8522         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8546         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1013.7         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1439***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0032)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0045         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0393)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0009         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0122)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0018         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0370)       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0291)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0568         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0435)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0192        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0127)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0082        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0104)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5601***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0552)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0330)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7053         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7839         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7431         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508.54         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0031)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0079         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0272)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0424         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0390)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0118         </t>
+    <t xml:space="preserve">-0.0052        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0300)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0125        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0096)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0063        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0056)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5681***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0496)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0945         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0698)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0439         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0464)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2569**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1086)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3088***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0560)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8663         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8396         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8514         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1039.1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1401***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0030)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0039         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0395)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0013        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0144)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0147         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0391)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0042        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0297)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0427         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0440)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0173        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0124)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0067        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0105)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5287***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0505)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1810***      </t>
+    <t xml:space="preserve">-0.0122        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0066        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0095*       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5485***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0475)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0790         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0699)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0503         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2579**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1072)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3174***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0497)       </t>
   </si>
 </sst>
 </file>
@@ -818,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,22 +957,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -875,22 +980,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -898,22 +1003,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -921,22 +1026,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -944,22 +1049,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -967,22 +1072,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -990,22 +1095,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1013,22 +1118,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1036,22 +1141,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1059,22 +1164,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1082,22 +1187,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1105,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1128,22 +1233,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1151,22 +1256,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1174,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1197,22 +1302,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1220,22 +1325,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1243,22 +1348,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1266,22 +1371,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1289,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1312,22 +1417,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1335,22 +1440,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1358,22 +1463,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1381,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1404,22 +1509,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1427,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1450,22 +1555,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1473,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1496,22 +1601,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1519,22 +1624,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1542,22 +1647,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1565,22 +1670,206 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
